--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_TongHopThongTinDuAn.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_TongHopThongTinDuAn.xlsx
@@ -16,9 +16,9 @@
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__dt__">Sheet1!$B$6:$L$6</definedName>
-    <definedName name="KeepRows_1_">Sheet1!$B$8:$L$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$L$21</definedName>
+    <definedName name="__dt__">Sheet1!$A$6:$K$6</definedName>
+    <definedName name="KeepRows_1_">Sheet1!$A$8:$K$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t>FormatHeader</t>
-  </si>
-  <si>
-    <t>&lt;#IF(&lt;#To&gt;=1;;&lt;#fRow0&gt;)&gt;</t>
   </si>
   <si>
     <t>&lt;#auto page breaks&gt;</t>
@@ -194,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,18 +206,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -274,6 +259,13 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -414,82 +406,81 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,39 +768,37 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" customWidth="1"/>
-    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" customWidth="1"/>
+    <col min="12" max="12" width="1.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="28" t="s">
-        <v>38</v>
-      </c>
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="27"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
@@ -817,15 +806,12 @@
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-    </row>
-    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>37</v>
-      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="26"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -835,263 +821,221 @@
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
       <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-    </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>23</v>
+      </c>
       <c r="B4" s="29" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="33" t="s">
+      <c r="E5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="34"/>
-    </row>
-    <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="15" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="25" t="s">
+      <c r="H6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D1:L2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C1:K2"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0" bottom="0" header="0" footer="0"/>
@@ -1109,213 +1053,213 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="8" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="8" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="8" t="s">
+      <c r="L8" s="2"/>
+      <c r="M8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="9" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="10" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="9" t="s">
+      <c r="L9" s="2"/>
+      <c r="M9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="12" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
